--- a/medicine/Mort/Cimetière_musulman_de_Yantala/Cimetière_musulman_de_Yantala.xlsx
+++ b/medicine/Mort/Cimetière_musulman_de_Yantala/Cimetière_musulman_de_Yantala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_musulman_de_Yantala</t>
+          <t>Cimetière_musulman_de_Yantala</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière musulman de Yantala est un cimetière musulman situé à Niamey, au Niger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_musulman_de_Yantala</t>
+          <t>Cimetière_musulman_de_Yantala</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière se trouve sur un plateau[1] de l'ouest du quartier Yantala Haut, dans l'arrondissement Niamey I. Il repose sur une couche de sable de plus de 2,5 m de profondeur[1] et s'étend sur 55,2 hectares[2]. Il est entouré d'un mur.
-Dans les années 1970, le cimetière se trouve sur un terrain non végétalisé, en dehors des limites de la ville[3]. Les fortes intempéries endommagent régulièrement le cimetière : ainsi, une partie du mur s'effondre en 2016 et plusieurs tombes sont éventrées par les précipitations en 2017[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière se trouve sur un plateau de l'ouest du quartier Yantala Haut, dans l'arrondissement Niamey I. Il repose sur une couche de sable de plus de 2,5 m de profondeur et s'étend sur 55,2 hectares. Il est entouré d'un mur.
+Dans les années 1970, le cimetière se trouve sur un terrain non végétalisé, en dehors des limites de la ville. Les fortes intempéries endommagent régulièrement le cimetière : ainsi, une partie du mur s'effondre en 2016 et plusieurs tombes sont éventrées par les précipitations en 2017.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_musulman_de_Yantala</t>
+          <t>Cimetière_musulman_de_Yantala</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,18 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Boubou Hama (1906–1982), homme politique et intellectuel[5]
-Damouré Zika (1924–2009), acteur, animateur de radio et guérisseur[5]
-Boubé Gado (1944–2015), historien et homme politique[6]
-Abdoua Kanta (1946–2017), journaliste, écrivain et réalisateur[7]
-Boukary Adji (1939–2018), directeur de banque et homme politique, Premier ministre du Niger[8]
-Hassane Kounou (1949–2018), homme politique et diplomate[9]
-Amadou Ousmane (1948–2018), journaliste et écrivain[10]
-Saïdou Sidibé (1952–2018), homme politique[11]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boubou Hama (1906–1982), homme politique et intellectuel
+Damouré Zika (1924–2009), acteur, animateur de radio et guérisseur
+Boubé Gado (1944–2015), historien et homme politique
+Abdoua Kanta (1946–2017), journaliste, écrivain et réalisateur
+Boukary Adji (1939–2018), directeur de banque et homme politique, Premier ministre du Niger
+Hassane Kounou (1949–2018), homme politique et diplomate
+Amadou Ousmane (1948–2018), journaliste et écrivain
+Saïdou Sidibé (1952–2018), homme politique</t>
         </is>
       </c>
     </row>
